--- a/biology/Histoire de la zoologie et de la botanique/Robert_Caspary/Robert_Caspary.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Caspary/Robert_Caspary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Xaver Robert Caspary est un botaniste prussien, né le 29 janvier 1818 à Königsberg et mort le 18 septembre 1887 dans l'arrondissement de Flatow (de).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au lycée de Kneiphof à Königsberg et étudie la théologie et la philosophie à l’université de Königsberg. Il se consacre aussi à l’étude des sciences naturelles, notamment à celle de l’entomologie. Après avoir obtenu un diplôme de théologie, il part à Berlin étudier les sciences naturelles et commence à se spécialiser en zoologie. Il suit les cours d’influents scientifiques comme Georg August Goldfuss en zoologie, Friedrich Wilhelm Argelander en astronomie et Ludolph Christian Treviranus en botanique.
 En 1845, Caspary obtient un poste d’enseignant à Bonn. En tant que précepteur des enfants d’un important commerçant, il voyage durant neuf mois en Italie en 1847, ce qui lui permet de constituer une importante collection de plantes et d’animaux. En 1848, il obtient un titre de docteur à Bonn.
